--- a/materialy/mestske-firmy/organy-politicke-osoby-2017.xlsx
+++ b/materialy/mestske-firmy/organy-politicke-osoby-2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="267">
   <si>
     <t xml:space="preserve">Političtí členové představenstev městských firem</t>
   </si>
@@ -214,13 +214,10 @@
     <t xml:space="preserve">Filip Neusser</t>
   </si>
   <si>
-    <t xml:space="preserve">Miroslav Svoboda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiří Tumpach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr Trávníček</t>
+    <t xml:space="preserve">František Adámek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matěj Fichtner</t>
   </si>
   <si>
     <t xml:space="preserve">Výstaviště Praha</t>
@@ -385,30 +382,66 @@
     <t xml:space="preserve">Vilém Sviták</t>
   </si>
   <si>
+    <t xml:space="preserve">Technologie hl. m. Prahy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš Jílek (NEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš Novotný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip Smola</t>
+  </si>
+  <si>
     <t xml:space="preserve">Političtí členové dozorčích rad městských firem</t>
   </si>
   <si>
     <t xml:space="preserve">Dozorčí rada</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukáš Kaucký</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jarmila Bendová</t>
   </si>
   <si>
+    <t xml:space="preserve">Petra Kolínská</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiří Obitko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek Doležal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vratislav Feigel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Hlaváč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Hlubuček</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vojtěch Kocourek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Kolář</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Lebeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Slabý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Šimůnek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jaroslav Štěpánek</t>
   </si>
   <si>
-    <t xml:space="preserve">Petr Hlubuček</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vojtěch Kocourek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr Dolínek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marek Doležal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lukáš Rázl</t>
   </si>
   <si>
@@ -424,9 +457,6 @@
     <t xml:space="preserve">Zdeněk Zábojník</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan Lebeda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petr Hejma</t>
   </si>
   <si>
@@ -559,7 +589,16 @@
     <t xml:space="preserve">Ondřej Mirovský</t>
   </si>
   <si>
-    <t xml:space="preserve">Vladislava Hujová</t>
+    <t xml:space="preserve">Luboš Mojdl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Petrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Burgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Mejstřík</t>
   </si>
   <si>
     <t xml:space="preserve">Vladislava Veselá</t>
@@ -743,6 +782,18 @@
   </si>
   <si>
     <t xml:space="preserve">Jaroslav Ungerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra Udženija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiří Nonfried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiří Nouza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Wolf</t>
   </si>
   <si>
     <t xml:space="preserve">straníci (či kandidáti):</t>
@@ -779,7 +830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,6 +852,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -835,7 +967,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,14 +976,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC697E7"/>
-        <bgColor rgb="FF9999FF"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC697E7"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -880,6 +1048,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
@@ -890,14 +1070,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -905,8 +1079,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -930,140 +1119,220 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1075,13 +1344,13 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1106,7 +1375,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFC697E7"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1133,16 +1402,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.06"/>
@@ -1154,11 +1423,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="17" style="1" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="17" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,11 +1502,11 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1565,7 +1834,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -1578,12 +1847,10 @@
       <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1598,16 +1865,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1625,19 +1892,19 @@
     </row>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1654,19 +1921,19 @@
     </row>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
@@ -1683,16 +1950,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1710,22 +1977,22 @@
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1741,22 +2008,22 @@
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1772,22 +2039,22 @@
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1802,19 +2069,19 @@
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1831,22 +2098,22 @@
     </row>
     <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1860,21 +2127,21 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1891,22 +2158,22 @@
     </row>
     <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4"/>
@@ -1921,22 +2188,22 @@
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G29" s="4"/>
       <c r="I29" s="4"/>
@@ -1949,277 +2216,307 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="3"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="B34" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="C34" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="D34" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="E34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="F34" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="H34" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="I34" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>152</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="C40" s="6" t="s">
         <v>158</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>160</v>
+        <v>36</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="C43" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2227,16 +2524,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>37</v>
+        <v>178</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2244,415 +2541,463 @@
     </row>
     <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>144</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>181</v>
+      <c r="B48" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>188</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>144</v>
+      <c r="G50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="J52" s="25" t="s">
         <v>206</v>
       </c>
+      <c r="D52" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>204</v>
+        <v>80</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H54" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>212</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>144</v>
+        <v>221</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>218</v>
+        <v>93</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>226</v>
+        <v>98</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>231</v>
+        <v>103</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>236</v>
+        <v>108</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="A60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="A62" s="23"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
-        <v>241</v>
-      </c>
+      <c r="A63" s="23"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>242</v>
+      <c r="A64" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>243</v>
+      <c r="A65" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
-        <v>244</v>
+      <c r="A66" s="16" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
-        <v>245</v>
+      <c r="A67" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
-        <v>246</v>
+      <c r="A68" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>247</v>
+      <c r="A69" s="34" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
-        <v>248</v>
+      <c r="A70" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>249</v>
+      <c r="A71" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2660,8 +3005,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Běžné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Běžné"&amp;12Stránka &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>